--- a/METS QC.xlsx
+++ b/METS QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/RNQ_Departmental_Filestores/Biochemistry QC Files/Biochemistry QC/Manual Excel QC/HPLC QC Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="10_ncr:8000_{1AD6C9D8-9EBE-4F89-871C-280203E60C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B567C5E-6789-4843-95BB-8DEBA2CF8690}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="10_ncr:8000_{1AD6C9D8-9EBE-4F89-871C-280203E60C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D707E16-E682-4C50-AA60-52CC836B087E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METS 63531 Live" sheetId="12" r:id="rId1"/>
@@ -1384,6 +1384,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,27 +1438,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1458,6 +1446,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1468,7 +1459,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22072,7 +22072,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -22103,42 +22103,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="128" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="135" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -22157,9 +22157,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="136"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="139"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -22630,11 +22630,11 @@
       <c r="J10" s="107"/>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="137" t="s">
+      <c r="M10" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="138"/>
-      <c r="O10" s="139"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -29607,16 +29607,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ztcwUgKoNPOylUPcLOwTvJnIDkaT54URrqb519DGXNtI5ZtQh0Ltbn0Qik1jlupKBSwSQ5tX7nWQSnye5mzypA==" saltValue="VYOJsYNbTUed8mso4/o8IA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AK29:AR29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AH20:AI20"/>
     <mergeCell ref="AK8:AR8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -29629,6 +29619,16 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AK3:AR3"/>
     <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AK29:AR29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D228">
     <cfRule type="cellIs" dxfId="59" priority="13" stopIfTrue="1" operator="between">
@@ -29784,42 +29784,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="128" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="135" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -29838,9 +29838,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="136"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="139"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -30313,11 +30313,11 @@
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="137" t="s">
+      <c r="M10" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="138"/>
-      <c r="O10" s="139"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -51380,16 +51380,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VxLKuj/q9f5kfh6jFSHrW7yWgM9x+s/G1o0f1VhJagteo5z4oYUsxNh4bs3+tBXTAJUL44G5U9nuaD+69CkDNw==" saltValue="217MSe6fZ2cv7rWroQl/oQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AK29:AR29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AH20:AI20"/>
     <mergeCell ref="AK8:AR8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -51402,6 +51392,16 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AK3:AR3"/>
     <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AK29:AR29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D65121">
     <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="between">
@@ -51552,42 +51552,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="128" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="135" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -51606,9 +51606,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="136"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="139"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -52042,11 +52042,11 @@
       <c r="J10" s="36"/>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="137" t="s">
+      <c r="M10" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="138"/>
-      <c r="O10" s="139"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -59071,17 +59071,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0QbBWlllstUAM+sQY7CBU9vFsqH1UJ4yvNekNVgaywruWa50ee6VyeztiicciC9HiGnSVNZ4X3JJNsEqvrF5pg==" saltValue="jiNEVnTfESnxsFwIw7imMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AK24:AP24"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AK29:AP29"/>
-    <mergeCell ref="AH25:AI25"/>
     <mergeCell ref="AK3:AP3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH4:AI4"/>
@@ -59093,6 +59082,17 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AK29:AP29"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK19:AP19"/>
+    <mergeCell ref="AK24:AP24"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D3:D65121">
@@ -59175,76 +59175,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="J1" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="148" t="s">
+      <c r="AB1" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="148" t="s">
+      <c r="AC1" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="140" t="s">
+      <c r="AD1" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="150" t="s">
+      <c r="AE1" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="144" t="s">
+      <c r="AG1" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="146"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="142"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="143"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="149"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="150"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="146"/>
       <c r="AG2" s="8" t="s">
         <v>16</v>
       </c>
@@ -60912,6 +60912,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
@@ -60920,14 +60928,6 @@
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60936,15 +60936,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bbae4d8a-5369-4991-91d8-007229455ff9">
@@ -60953,6 +60944,15 @@
     <TaxCatchAll xmlns="184dda3b-6708-4ad8-b920-a09dda3c5f6c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61151,14 +61151,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -61171,6 +61163,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="184dda3b-6708-4ad8-b920-a09dda3c5f6c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/METS QC.xlsx
+++ b/METS QC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/RNQ_Departmental_Filestores/Biochemistry QC Files/Biochemistry QC/Manual Excel QC/HPLC QC Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="10_ncr:8000_{1AD6C9D8-9EBE-4F89-871C-280203E60C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D707E16-E682-4C50-AA60-52CC836B087E}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="10_ncr:8000_{1AD6C9D8-9EBE-4F89-871C-280203E60C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E956BF-91D0-4DC1-B2AF-F90E64F15D97}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1384,15 +1384,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,6 +1429,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1446,9 +1458,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1459,16 +1468,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22072,7 +22072,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -22103,42 +22103,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="131" t="s">
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134" t="s">
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="136"/>
-      <c r="L1" s="138" t="s">
+      <c r="K1" s="133"/>
+      <c r="L1" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="122" t="s">
+      <c r="M1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="123"/>
-      <c r="O1" s="124"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="139"/>
     </row>
     <row r="2" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -22157,9 +22157,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="139"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -22630,11 +22630,11 @@
       <c r="J10" s="107"/>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="122" t="s">
+      <c r="M10" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="123"/>
-      <c r="O10" s="124"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="139"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -29607,6 +29607,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ztcwUgKoNPOylUPcLOwTvJnIDkaT54URrqb519DGXNtI5ZtQh0Ltbn0Qik1jlupKBSwSQ5tX7nWQSnye5mzypA==" saltValue="VYOJsYNbTUed8mso4/o8IA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AK29:AR29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AH20:AI20"/>
     <mergeCell ref="AK8:AR8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -29619,16 +29629,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AK3:AR3"/>
     <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AK29:AR29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D228">
     <cfRule type="cellIs" dxfId="59" priority="13" stopIfTrue="1" operator="between">
@@ -29784,42 +29784,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="131" t="s">
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134" t="s">
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="136"/>
-      <c r="L1" s="138" t="s">
+      <c r="K1" s="133"/>
+      <c r="L1" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="122" t="s">
+      <c r="M1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="123"/>
-      <c r="O1" s="124"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="139"/>
     </row>
     <row r="2" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -29838,9 +29838,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="139"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -30313,11 +30313,11 @@
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="122" t="s">
+      <c r="M10" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="123"/>
-      <c r="O10" s="124"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="139"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -51380,6 +51380,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VxLKuj/q9f5kfh6jFSHrW7yWgM9x+s/G1o0f1VhJagteo5z4oYUsxNh4bs3+tBXTAJUL44G5U9nuaD+69CkDNw==" saltValue="217MSe6fZ2cv7rWroQl/oQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AK29:AR29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AH20:AI20"/>
     <mergeCell ref="AK8:AR8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -51392,16 +51402,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AK3:AR3"/>
     <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AK29:AR29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D65121">
     <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="between">
@@ -51552,42 +51552,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="131" t="s">
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134" t="s">
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="136"/>
-      <c r="L1" s="138" t="s">
+      <c r="K1" s="133"/>
+      <c r="L1" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="122" t="s">
+      <c r="M1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="123"/>
-      <c r="O1" s="124"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="139"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -51606,9 +51606,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="139"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -52042,11 +52042,11 @@
       <c r="J10" s="36"/>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="122" t="s">
+      <c r="M10" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="123"/>
-      <c r="O10" s="124"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="139"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -59071,6 +59071,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0QbBWlllstUAM+sQY7CBU9vFsqH1UJ4yvNekNVgaywruWa50ee6VyeztiicciC9HiGnSVNZ4X3JJNsEqvrF5pg==" saltValue="jiNEVnTfESnxsFwIw7imMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK19:AP19"/>
+    <mergeCell ref="AK24:AP24"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AK29:AP29"/>
+    <mergeCell ref="AH25:AI25"/>
     <mergeCell ref="AK3:AP3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH4:AI4"/>
@@ -59082,17 +59093,6 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AK29:AP29"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AK24:AP24"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D3:D65121">
@@ -59175,76 +59175,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="147" t="s">
+      <c r="G1" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="147" t="s">
+      <c r="H1" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="143" t="s">
+      <c r="I1" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="143" t="s">
+      <c r="J1" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="K1" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="145" t="s">
+      <c r="AB1" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="145" t="s">
+      <c r="AC1" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="147" t="s">
+      <c r="AD1" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="149" t="s">
+      <c r="AE1" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="140" t="s">
+      <c r="AG1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="142"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="146"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="150"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="146"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="143"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="149"/>
       <c r="AG2" s="8" t="s">
         <v>16</v>
       </c>
@@ -60912,6 +60912,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -60920,14 +60928,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60936,26 +60936,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bbae4d8a-5369-4991-91d8-007229455ff9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="184dda3b-6708-4ad8-b920-a09dda3c5f6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100171B93B5FBCD4B49847373C2915E7916" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9b147b7bfe1b5ebf9de8d946fbffe46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbae4d8a-5369-4991-91d8-007229455ff9" xmlns:ns3="184dda3b-6708-4ad8-b920-a09dda3c5f6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0def0ecf32156ba6bf50a1f9280751e9" ns2:_="" ns3:_="">
     <xsd:import namespace="bbae4d8a-5369-4991-91d8-007229455ff9"/>
@@ -61150,32 +61130,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bbae4d8a-5369-4991-91d8-007229455ff9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="184dda3b-6708-4ad8-b920-a09dda3c5f6c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bbae4d8a-5369-4991-91d8-007229455ff9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="184dda3b-6708-4ad8-b920-a09dda3c5f6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FE4E87-4FD6-496A-AEF9-695066BFAA54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61194,6 +61169,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bbae4d8a-5369-4991-91d8-007229455ff9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="184dda3b-6708-4ad8-b920-a09dda3c5f6c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{37c354b2-85b0-47f5-b222-07b48d774ee3}" enabled="0" method="" siteId="{37c354b2-85b0-47f5-b222-07b48d774ee3}" removed="1"/>

--- a/METS QC.xlsx
+++ b/METS QC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/RNQ_Departmental_Filestores/Biochemistry QC Files/Biochemistry QC/Manual Excel QC/HPLC QC Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="10_ncr:8000_{1AD6C9D8-9EBE-4F89-871C-280203E60C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E956BF-91D0-4DC1-B2AF-F90E64F15D97}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="10_ncr:8000_{1AD6C9D8-9EBE-4F89-871C-280203E60C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F47DD683-C242-4CD0-91A1-5F52F4C02FD3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1384,6 +1384,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,27 +1438,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1458,6 +1446,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1468,7 +1459,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22070,7 +22070,7 @@
   <dimension ref="A1:AV1222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
@@ -22103,42 +22103,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="128" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="135" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -22157,9 +22157,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="136"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="139"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -22630,11 +22630,11 @@
       <c r="J10" s="107"/>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="137" t="s">
+      <c r="M10" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="138"/>
-      <c r="O10" s="139"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -29607,16 +29607,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ztcwUgKoNPOylUPcLOwTvJnIDkaT54URrqb519DGXNtI5ZtQh0Ltbn0Qik1jlupKBSwSQ5tX7nWQSnye5mzypA==" saltValue="VYOJsYNbTUed8mso4/o8IA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AK29:AR29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AH20:AI20"/>
     <mergeCell ref="AK8:AR8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -29629,6 +29619,16 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AK3:AR3"/>
     <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AK29:AR29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D228">
     <cfRule type="cellIs" dxfId="59" priority="13" stopIfTrue="1" operator="between">
@@ -29784,42 +29784,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="128" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="135" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -29838,9 +29838,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="136"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="139"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -30313,11 +30313,11 @@
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="137" t="s">
+      <c r="M10" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="138"/>
-      <c r="O10" s="139"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -51380,16 +51380,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VxLKuj/q9f5kfh6jFSHrW7yWgM9x+s/G1o0f1VhJagteo5z4oYUsxNh4bs3+tBXTAJUL44G5U9nuaD+69CkDNw==" saltValue="217MSe6fZ2cv7rWroQl/oQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AK29:AR29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AH20:AI20"/>
     <mergeCell ref="AK8:AR8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -51402,6 +51392,16 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AK3:AR3"/>
     <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AK29:AR29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D65121">
     <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="between">
@@ -51552,42 +51552,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="128" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="135" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -51606,9 +51606,9 @@
       <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="136"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="139"/>
       <c r="M2" s="44" t="s">
         <v>8</v>
       </c>
@@ -52042,11 +52042,11 @@
       <c r="J10" s="36"/>
       <c r="K10" s="39"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="137" t="s">
+      <c r="M10" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="138"/>
-      <c r="O10" s="139"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
       <c r="AH10" s="10" t="s">
         <v>24</v>
       </c>
@@ -59071,17 +59071,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0QbBWlllstUAM+sQY7CBU9vFsqH1UJ4yvNekNVgaywruWa50ee6VyeztiicciC9HiGnSVNZ4X3JJNsEqvrF5pg==" saltValue="jiNEVnTfESnxsFwIw7imMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AK24:AP24"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AK29:AP29"/>
-    <mergeCell ref="AH25:AI25"/>
     <mergeCell ref="AK3:AP3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH4:AI4"/>
@@ -59093,6 +59082,17 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AK29:AP29"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK19:AP19"/>
+    <mergeCell ref="AK24:AP24"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D3:D65121">
@@ -59175,76 +59175,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="J1" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="148" t="s">
+      <c r="AB1" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="148" t="s">
+      <c r="AC1" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="140" t="s">
+      <c r="AD1" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="150" t="s">
+      <c r="AE1" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="144" t="s">
+      <c r="AG1" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="146"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="142"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="143"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="149"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="150"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="146"/>
       <c r="AG2" s="8" t="s">
         <v>16</v>
       </c>
@@ -60912,6 +60912,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
@@ -60920,14 +60928,6 @@
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61131,15 +61131,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bbae4d8a-5369-4991-91d8-007229455ff9">
@@ -61148,6 +61139,15 @@
     <TaxCatchAll xmlns="184dda3b-6708-4ad8-b920-a09dda3c5f6c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61170,14 +61170,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -61194,6 +61186,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{37c354b2-85b0-47f5-b222-07b48d774ee3}" enabled="0" method="" siteId="{37c354b2-85b0-47f5-b222-07b48d774ee3}" removed="1"/>
